--- a/summary.xlsx
+++ b/summary.xlsx
@@ -8,13 +8,14 @@
   </bookViews>
   <sheets>
     <sheet name="edge - open" sheetId="1" r:id="rId1"/>
+    <sheet name="edge - open - power" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="53">
   <si>
     <t>Model</t>
   </si>
@@ -31,6 +32,15 @@
     <t>resnet</t>
   </si>
   <si>
+    <t>retinanet</t>
+  </si>
+  <si>
+    <t>rnnt</t>
+  </si>
+  <si>
+    <t>bert-99</t>
+  </si>
+  <si>
     <t>SingleStream</t>
   </si>
   <si>
@@ -100,9 +110,27 @@
     <t>3.1-0001</t>
   </si>
   <si>
+    <t>3.1-0002</t>
+  </si>
+  <si>
+    <t>3.1-0003</t>
+  </si>
+  <si>
+    <t>3.1-0004</t>
+  </si>
+  <si>
     <t>edge/open/cTuning/Ryzen_3_4300U-reference-cpu-tvm-onnx-v1.15.1-default_config/resnet50</t>
   </si>
   <si>
+    <t>edge/open/cTuning/amd_ryzen_workstation-reference-cpu-pytorch-v1.13.1-default_config/rnnt</t>
+  </si>
+  <si>
+    <t>edge/open/cTuning/amd_ryzen_workstation-reference-cpu-pytorch-v2.0.1-default_config/bert-99</t>
+  </si>
+  <si>
+    <t>edge/open/cTuning/amd_ryzen_workstation-reference-cpu-pytorch-v2.0.1-default_config/retinanet</t>
+  </si>
+  <si>
     <t>availablecTuning</t>
   </si>
   <si>
@@ -115,16 +143,37 @@
     <t>Ryzen 3 4300U</t>
   </si>
   <si>
+    <t>amd_ryzen_workstation</t>
+  </si>
+  <si>
     <t>AMD Ryzen 3 4300U with Radeon Graphics</t>
   </si>
   <si>
+    <t>AMD Ryzen 9 7950X 16-Core Processor</t>
+  </si>
+  <si>
     <t>tvm onnx</t>
   </si>
   <si>
+    <t>pytorch v1.13.1</t>
+  </si>
+  <si>
+    <t>pytorch v2.0.1</t>
+  </si>
+  <si>
     <t xml:space="preserve"> Result taken by Ilya Kozulin. Powered by MLCommons Collective Mind framework (CK2). </t>
   </si>
   <si>
+    <t xml:space="preserve">Powered by MLCommons Collective Mind framework (CK2). </t>
+  </si>
+  <si>
     <t>resnet50</t>
+  </si>
+  <si>
+    <t>millijoules</t>
+  </si>
+  <si>
+    <t>Watts</t>
   </si>
 </sst>
 </file>
@@ -494,7 +543,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CW6"/>
+  <dimension ref="A1:CW10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -504,15 +553,22 @@
     <col min="16" max="101" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:27">
       <c r="Q1" s="2"/>
       <c r="R1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="S1" s="2"/>
       <c r="T1" s="2"/>
-    </row>
-    <row r="2" spans="1:20">
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+    </row>
+    <row r="2" spans="1:27">
       <c r="Q2" s="2" t="s">
         <v>0</v>
       </c>
@@ -521,112 +577,167 @@
       </c>
       <c r="S2" s="2"/>
       <c r="T2" s="2"/>
-    </row>
-    <row r="3" spans="1:20">
+      <c r="U2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA2" s="2"/>
+    </row>
+    <row r="3" spans="1:27">
       <c r="Q3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20">
+        <v>10</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="W3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="X3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA3" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27">
       <c r="Q4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
+        <v>12</v>
+      </c>
+      <c r="U4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="V4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="W4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="X4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA4" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27">
       <c r="A5" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27">
       <c r="A6" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="G6" s="2">
         <v>1</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="I6" s="2">
         <v>1</v>
@@ -634,13 +745,13 @@
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="O6" s="2">
         <v>76.456</v>
@@ -663,10 +774,676 @@
         <v>6.95999</v>
       </c>
     </row>
+    <row r="7" spans="1:27">
+      <c r="A7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" s="2">
+        <v>1</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I7" s="2">
+        <v>1</v>
+      </c>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O7" s="2">
+        <v>92.54774628514735</v>
+      </c>
+      <c r="P7" s="2">
+        <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_3.1/tree/main/open/cTuning/results/amd_ryzen_workstation-reference-cpu-pytorch-v1.13.1-default_config","details")</f>
+        <v>0</v>
+      </c>
+      <c r="Q7" s="2">
+        <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_3.1/tree/main/open/cTuning/code","details")</f>
+        <v>0</v>
+      </c>
+      <c r="X7" s="1">
+        <v>402.949448</v>
+      </c>
+      <c r="Y7" s="1">
+        <v>4.46461</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27">
+      <c r="A8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" s="2">
+        <v>1</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I8" s="2">
+        <v>1</v>
+      </c>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="O8" s="2">
+        <v>90.06758192089688</v>
+      </c>
+      <c r="P8" s="2">
+        <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_3.1/tree/main/open/cTuning/results/amd_ryzen_workstation-reference-cpu-pytorch-v2.0.1-default_config","details")</f>
+        <v>0</v>
+      </c>
+      <c r="Q8" s="2">
+        <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_3.1/tree/main/open/cTuning/code","details")</f>
+        <v>0</v>
+      </c>
+      <c r="AA8" s="1">
+        <v>3.82059</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2">
+        <v>90.87487229720104</v>
+      </c>
+      <c r="P9" s="2">
+        <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_3.1/tree/main/open/cTuning/results/amd_ryzen_workstation-reference-cpu-pytorch-v2.0.1-default_config","details")</f>
+        <v>0</v>
+      </c>
+      <c r="Q9" s="2">
+        <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_3.1/tree/main/open/cTuning/code","details")</f>
+        <v>0</v>
+      </c>
+      <c r="Z9" s="1">
+        <v>275.322649</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27">
+      <c r="A10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" s="2">
+        <v>1</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I10" s="2">
+        <v>1</v>
+      </c>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="O10" s="2">
+        <v>37.55</v>
+      </c>
+      <c r="P10" s="2">
+        <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_3.1/tree/main/open/cTuning/results/amd_ryzen_workstation-reference-cpu-pytorch-v2.0.1-default_config","details")</f>
+        <v>0</v>
+      </c>
+      <c r="Q10" s="2">
+        <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_3.1/tree/main/open/cTuning/code","details")</f>
+        <v>0</v>
+      </c>
+      <c r="U10" s="1">
+        <v>437.916361</v>
+      </c>
+      <c r="V10" s="1">
+        <v>3673.790808</v>
+      </c>
+      <c r="W10" s="1">
+        <v>2.52627</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="R1:T1"/>
+  <mergeCells count="19">
+    <mergeCell ref="R1:AA1"/>
     <mergeCell ref="R2:T2"/>
+    <mergeCell ref="U2:W2"/>
+    <mergeCell ref="X2:Y2"/>
+    <mergeCell ref="Z2:AA2"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="N8:N9"/>
+  </mergeCells>
+  <conditionalFormatting sqref="A6:CW201">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>mod(countunique($c$6:$c6), 2) = 0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:CW9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="3" width="0" hidden="1" customWidth="1"/>
+    <col min="16" max="101" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:31">
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="2"/>
+    </row>
+    <row r="2" spans="1:31">
+      <c r="Q2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
+      <c r="AA2" s="2"/>
+      <c r="AB2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC2" s="2"/>
+      <c r="AD2" s="2"/>
+      <c r="AE2" s="2"/>
+    </row>
+    <row r="3" spans="1:31">
+      <c r="Q3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA3" s="2"/>
+      <c r="AB3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC3" s="2"/>
+      <c r="AD3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE3" s="2"/>
+    </row>
+    <row r="4" spans="1:31">
+      <c r="Q4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="U4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="V4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="W4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="X4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE4" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31">
+      <c r="A5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31">
+      <c r="A6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" s="2">
+        <v>1</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I6" s="2">
+        <v>1</v>
+      </c>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O6" s="2">
+        <v>92.54774628514735</v>
+      </c>
+      <c r="P6" s="2">
+        <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_3.1/tree/main/open/cTuning/results/amd_ryzen_workstation-reference-cpu-pytorch-v1.13.1-default_config","details")</f>
+        <v>0</v>
+      </c>
+      <c r="Q6" s="2">
+        <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_3.1/tree/main/open/cTuning/code","details")</f>
+        <v>0</v>
+      </c>
+      <c r="X6" s="1">
+        <v>402.949448</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>44062.13490428295</v>
+      </c>
+      <c r="Z6" s="1">
+        <v>4.46461</v>
+      </c>
+      <c r="AA6" s="1">
+        <v>196.5061998183469</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31">
+      <c r="A7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" s="2">
+        <v>1</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I7" s="2">
+        <v>1</v>
+      </c>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="O7" s="2">
+        <v>90.06758192089688</v>
+      </c>
+      <c r="P7" s="2">
+        <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_3.1/tree/main/open/cTuning/results/amd_ryzen_workstation-reference-cpu-pytorch-v2.0.1-default_config","details")</f>
+        <v>0</v>
+      </c>
+      <c r="Q7" s="2">
+        <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_3.1/tree/main/open/cTuning/code","details")</f>
+        <v>0</v>
+      </c>
+      <c r="AD7" s="1">
+        <v>3.82059</v>
+      </c>
+      <c r="AE7" s="1">
+        <v>336.2246960982251</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2">
+        <v>90.87487229720104</v>
+      </c>
+      <c r="P8" s="2">
+        <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_3.1/tree/main/open/cTuning/results/amd_ryzen_workstation-reference-cpu-pytorch-v2.0.1-default_config","details")</f>
+        <v>0</v>
+      </c>
+      <c r="Q8" s="2">
+        <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_3.1/tree/main/open/cTuning/code","details")</f>
+        <v>0</v>
+      </c>
+      <c r="AB8" s="1">
+        <v>275.322649</v>
+      </c>
+      <c r="AC8" s="1">
+        <v>89810.32124061607</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31">
+      <c r="A9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" s="2">
+        <v>1</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I9" s="2">
+        <v>1</v>
+      </c>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="O9" s="2">
+        <v>37.55</v>
+      </c>
+      <c r="P9" s="2">
+        <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_3.1/tree/main/open/cTuning/results/amd_ryzen_workstation-reference-cpu-pytorch-v2.0.1-default_config","details")</f>
+        <v>0</v>
+      </c>
+      <c r="Q9" s="2">
+        <f>HYPERLINK("https://github.com/mlcommons/submissions_inference_3.1/tree/main/open/cTuning/code","details")</f>
+        <v>0</v>
+      </c>
+      <c r="R9" s="1">
+        <v>437.916361</v>
+      </c>
+      <c r="S9" s="1">
+        <v>127827.1712736058</v>
+      </c>
+      <c r="T9" s="1">
+        <v>3673.790808</v>
+      </c>
+      <c r="U9" s="1">
+        <v>1022617.370188846</v>
+      </c>
+      <c r="V9" s="1">
+        <v>2.52627</v>
+      </c>
+      <c r="W9" s="1">
+        <v>347.7131332237013</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="25">
+    <mergeCell ref="R1:AE1"/>
+    <mergeCell ref="R2:W2"/>
+    <mergeCell ref="X2:AA2"/>
+    <mergeCell ref="AB2:AE2"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="V3:W3"/>
+    <mergeCell ref="X3:Y3"/>
+    <mergeCell ref="Z3:AA3"/>
+    <mergeCell ref="AB3:AC3"/>
+    <mergeCell ref="AD3:AE3"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="N7:N8"/>
   </mergeCells>
   <conditionalFormatting sqref="A6:CW201">
     <cfRule type="expression" dxfId="0" priority="1">
